--- a/ADC_time.xlsx
+++ b/ADC_time.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Java processing" sheetId="2" r:id="rId2"/>
     <sheet name="Triangle" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -270,7 +270,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -405,7 +405,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -421,9 +421,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -469,6 +469,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -573,6 +593,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C1DC-43B7-83C8-C2B45BFC5FBC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -671,6 +696,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C1DC-43B7-83C8-C2B45BFC5FBC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -769,6 +799,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C1DC-43B7-83C8-C2B45BFC5FBC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -867,6 +902,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C1DC-43B7-83C8-C2B45BFC5FBC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -922,7 +962,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="98210176"/>
@@ -981,7 +1021,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="98199808"/>
@@ -1024,7 +1064,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1054,7 +1094,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1644,9 +1684,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1684,9 +1724,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1721,7 +1761,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1756,7 +1796,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1933,7 +1973,7 @@
   <dimension ref="B2:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
